--- a/results/etwfe_main.xlsx
+++ b/results/etwfe_main.xlsx
@@ -396,16 +396,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.0013464996863342</v>
+        <v>0.00106526227811324</v>
       </c>
       <c r="B2">
-        <v>0.002198071833944668</v>
+        <v>0.002357661629808072</v>
       </c>
       <c r="C2">
-        <v>0.6125822029745798</v>
+        <v>0.4518300101443983</v>
       </c>
       <c r="D2">
-        <v>0.5553127133731421</v>
+        <v>0.6620834656970909</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -413,10 +413,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>-0.002961641943629256</v>
+        <v>-0.003555669604042586</v>
       </c>
       <c r="G2">
-        <v>0.005654641316297655</v>
+        <v>0.005686194160269065</v>
       </c>
     </row>
     <row r="3">
@@ -446,16 +446,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.001769664048665375</v>
+        <v>0.001550026346551076</v>
       </c>
       <c r="B4">
-        <v>0.001691259040679429</v>
+        <v>0.001477071947618839</v>
       </c>
       <c r="C4">
-        <v>1.046358958681131</v>
+        <v>1.049391229079833</v>
       </c>
       <c r="D4">
-        <v>0.3259775267081833</v>
+        <v>0.3246628764648554</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -463,24 +463,24 @@
         </is>
       </c>
       <c r="F4">
-        <v>-0.001545142759594067</v>
+        <v>-0.001344981473356281</v>
       </c>
       <c r="G4">
-        <v>0.005084470856924817</v>
+        <v>0.004445034166458433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.001980400901965652</v>
+        <v>-0.001978379784245947</v>
       </c>
       <c r="B5">
-        <v>0.002979259810895787</v>
+        <v>0.002569528125327527</v>
       </c>
       <c r="C5">
-        <v>-0.6647291702196984</v>
+        <v>-0.7699389490020748</v>
       </c>
       <c r="D5">
-        <v>0.5178423270805099</v>
+        <v>0.4551001374578764</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>-0.007819642831909005</v>
+        <v>-0.007014562367150622</v>
       </c>
       <c r="G5">
-        <v>0.003858841027977702</v>
+        <v>0.003057802798658726</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.006070447085672286</v>
+        <v>0.005891058547467197</v>
       </c>
       <c r="B7">
-        <v>0.003381988368234219</v>
+        <v>0.00329477458978879</v>
       </c>
       <c r="C7">
-        <v>1.794934347702013</v>
+        <v>1.788000479827921</v>
       </c>
       <c r="D7">
-        <v>0.08309430736555025</v>
+        <v>0.08423039979879381</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -538,24 +538,24 @@
         </is>
       </c>
       <c r="F7">
-        <v>-0.00055812831220017</v>
+        <v>-0.0005665809856965614</v>
       </c>
       <c r="G7">
-        <v>0.01269902248354474</v>
+        <v>0.01234869808063096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.004392617912460517</v>
+        <v>-0.004508535820885919</v>
       </c>
       <c r="B8">
-        <v>0.005712159767840357</v>
+        <v>0.005666373767979278</v>
       </c>
       <c r="C8">
-        <v>-0.7689942317774612</v>
+        <v>-0.7956650947319589</v>
       </c>
       <c r="D8">
-        <v>0.4567658954190499</v>
+        <v>0.4416821371639195</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -563,24 +563,24 @@
         </is>
       </c>
       <c r="F8">
-        <v>-0.01558824533136629</v>
+        <v>-0.01561442432906782</v>
       </c>
       <c r="G8">
-        <v>0.006803009506445258</v>
+        <v>0.006597352687295983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.001300588945919431</v>
+        <v>0.000855791308843742</v>
       </c>
       <c r="B9">
-        <v>0.00212626962562038</v>
+        <v>0.001682070533446685</v>
       </c>
       <c r="C9">
-        <v>0.6116763980673237</v>
+        <v>0.5087725465888541</v>
       </c>
       <c r="D9">
-        <v>0.5738096078115402</v>
+        <v>0.6376904870016138</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -588,24 +588,24 @@
         </is>
       </c>
       <c r="F9">
-        <v>-0.002866822941717978</v>
+        <v>-0.002441006356167836</v>
       </c>
       <c r="G9">
-        <v>0.005468000833556839</v>
+        <v>0.004152588973855319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.002545438374641523</v>
+        <v>-0.002448568145020641</v>
       </c>
       <c r="B10">
-        <v>0.004102055883522629</v>
+        <v>0.004045304768641884</v>
       </c>
       <c r="C10">
-        <v>-0.6205274737641153</v>
+        <v>-0.6052864456594924</v>
       </c>
       <c r="D10">
-        <v>0.5367669897170255</v>
+        <v>0.5467919116885729</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>-0.01058532016891651</v>
+        <v>-0.01037721979804687</v>
       </c>
       <c r="G10">
-        <v>0.00549444341963346</v>
+        <v>0.005480083508005586</v>
       </c>
     </row>
     <row r="11">
@@ -646,16 +646,16 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.004296311177597617</v>
+        <v>-0.004674922398761353</v>
       </c>
       <c r="B12">
-        <v>0.01200403530296458</v>
+        <v>0.01186201504975968</v>
       </c>
       <c r="C12">
-        <v>-0.3579055766802501</v>
+        <v>-0.3941086214400026</v>
       </c>
       <c r="D12">
-        <v>0.7238250333377666</v>
+        <v>0.6972950101496964</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -663,24 +663,24 @@
         </is>
       </c>
       <c r="F12">
-        <v>-0.02782378804055554</v>
+        <v>-0.02792404468036242</v>
       </c>
       <c r="G12">
-        <v>0.0192311656853603</v>
+        <v>0.01857419988283972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.005601275943100741</v>
+        <v>0.006161136937424033</v>
       </c>
       <c r="B13">
-        <v>0.007149666352039395</v>
+        <v>0.007374671727657219</v>
       </c>
       <c r="C13">
-        <v>0.7834317948980953</v>
+        <v>0.8354455852343815</v>
       </c>
       <c r="D13">
-        <v>0.4448164438579459</v>
+        <v>0.4157686875543062</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -688,24 +688,24 @@
         </is>
       </c>
       <c r="F13">
-        <v>-0.008411812608374343</v>
+        <v>-0.008292954046589893</v>
       </c>
       <c r="G13">
-        <v>0.01961436449457582</v>
+        <v>0.02061522792143796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.008324495799144526</v>
+        <v>0.008968869582623619</v>
       </c>
       <c r="B14">
-        <v>0.008742824743044726</v>
+        <v>0.005863584254337636</v>
       </c>
       <c r="C14">
-        <v>0.9521517408623571</v>
+        <v>1.529588250733981</v>
       </c>
       <c r="D14">
-        <v>0.3583886976851687</v>
+        <v>0.1500814118128345</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -713,24 +713,24 @@
         </is>
       </c>
       <c r="F14">
-        <v>-0.008811125820368786</v>
+        <v>-0.002523544376194295</v>
       </c>
       <c r="G14">
-        <v>0.02546011741865784</v>
+        <v>0.02046128354144153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.004935199983152856</v>
+        <v>-0.005514406814561551</v>
       </c>
       <c r="B15">
-        <v>0.00380773412729282</v>
+        <v>0.001898322054019646</v>
       </c>
       <c r="C15">
-        <v>-1.296098891931205</v>
+        <v>-2.90488476540898</v>
       </c>
       <c r="D15">
-        <v>0.2174797419497897</v>
+        <v>0.01229211508273041</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -738,24 +738,24 @@
         </is>
       </c>
       <c r="F15">
-        <v>-0.01239822173535084</v>
+        <v>-0.009235049671498156</v>
       </c>
       <c r="G15">
-        <v>0.002527821769045122</v>
+        <v>-0.001793763957624948</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.0005514322240562383</v>
+        <v>0.0005718958727332162</v>
       </c>
       <c r="B16">
-        <v>0.005127738327179512</v>
+        <v>0.005226800494083421</v>
       </c>
       <c r="C16">
-        <v>0.107539072564093</v>
+        <v>0.1094160516324633</v>
       </c>
       <c r="D16">
-        <v>0.915620311247197</v>
+        <v>0.914153710906886</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>-0.009498750219361267</v>
+        <v>-0.009672444850046447</v>
       </c>
       <c r="G16">
-        <v>0.01060161466747374</v>
+        <v>0.01081623659551288</v>
       </c>
     </row>
     <row r="17">
@@ -796,16 +796,16 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.0002271757927801773</v>
+        <v>0.0002189622515578696</v>
       </c>
       <c r="B18">
-        <v>0.002727331663559646</v>
+        <v>0.002634827115983889</v>
       </c>
       <c r="C18">
-        <v>0.08329599066204989</v>
+        <v>0.08310308112041173</v>
       </c>
       <c r="D18">
-        <v>0.9338242620803181</v>
+        <v>0.9339771646496379</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -813,24 +813,24 @@
         </is>
       </c>
       <c r="F18">
-        <v>-0.005118296041692441</v>
+        <v>-0.004945204001260092</v>
       </c>
       <c r="G18">
-        <v>0.005572647627252795</v>
+        <v>0.00538312850437583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.001297666377123668</v>
+        <v>0.001249076298788962</v>
       </c>
       <c r="B19">
-        <v>0.001630778762860649</v>
+        <v>0.001755000039612627</v>
       </c>
       <c r="C19">
-        <v>0.7957341649748685</v>
+        <v>0.7117243707097947</v>
       </c>
       <c r="D19">
-        <v>0.4565046694108983</v>
+        <v>0.5033551237916681</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -838,24 +838,24 @@
         </is>
       </c>
       <c r="F19">
-        <v>-0.00189860126483599</v>
+        <v>-0.002190660571718156</v>
       </c>
       <c r="G19">
-        <v>0.004493934019083325</v>
+        <v>0.004688813169296079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.002535141563716175</v>
+        <v>-0.002527608200555157</v>
       </c>
       <c r="B20">
-        <v>0.001835298906375531</v>
+        <v>0.001841253102643453</v>
       </c>
       <c r="C20">
-        <v>-1.381323529867262</v>
+        <v>-1.372765209153655</v>
       </c>
       <c r="D20">
-        <v>0.2393264533959414</v>
+        <v>0.2417595606967026</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -863,24 +863,24 @@
         </is>
       </c>
       <c r="F20">
-        <v>-0.006132261321077965</v>
+        <v>-0.006136397968158956</v>
       </c>
       <c r="G20">
-        <v>0.001061978193645615</v>
+        <v>0.001081181567048642</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.01087940068624019</v>
+        <v>-0.01288132774721666</v>
       </c>
       <c r="B21">
-        <v>0.007776133624904611</v>
+        <v>0.007393892334095474</v>
       </c>
       <c r="C21">
-        <v>-1.39907584038895</v>
+        <v>-1.742157873711112</v>
       </c>
       <c r="D21">
-        <v>0.1808769520064635</v>
+        <v>0.1006666807132836</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -888,24 +888,24 @@
         </is>
       </c>
       <c r="F21">
-        <v>-0.02612034253002412</v>
+        <v>-0.02737309042761059</v>
       </c>
       <c r="G21">
-        <v>0.004361541157543745</v>
+        <v>0.001610434933177264</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.01115782968825448</v>
+        <v>-0.01183799772050549</v>
       </c>
       <c r="B22">
-        <v>0.005882631326487716</v>
+        <v>0.006427219388178806</v>
       </c>
       <c r="C22">
-        <v>-1.89674128276816</v>
+        <v>-1.841853685946742</v>
       </c>
       <c r="D22">
-        <v>0.09444066881532424</v>
+        <v>0.1027528589038426</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -913,24 +913,24 @@
         </is>
       </c>
       <c r="F22">
-        <v>-0.02268757522249748</v>
+        <v>-0.02443511624207351</v>
       </c>
       <c r="G22">
-        <v>0.0003719158459885297</v>
+        <v>0.0007591208010625222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.005430240576337614</v>
+        <v>-0.003300851329889267</v>
       </c>
       <c r="B23">
-        <v>0.003883528088096088</v>
+        <v>0.00390001942158099</v>
       </c>
       <c r="C23">
-        <v>-1.398275087280187</v>
+        <v>-0.8463679210477285</v>
       </c>
       <c r="D23">
-        <v>0.1873377618674915</v>
+        <v>0.4139074596946721</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -938,24 +938,24 @@
         </is>
       </c>
       <c r="F23">
-        <v>-0.01304181576195564</v>
+        <v>-0.01094474893519474</v>
       </c>
       <c r="G23">
-        <v>0.002181334609280412</v>
+        <v>0.004343046275416206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.001755263404218926</v>
+        <v>0.001543627083061935</v>
       </c>
       <c r="B24">
-        <v>0.00152793020514754</v>
+        <v>0.001418687106878369</v>
       </c>
       <c r="C24">
-        <v>1.148785067737721</v>
+        <v>1.08806732335679</v>
       </c>
       <c r="D24">
-        <v>0.2607203704091353</v>
+        <v>0.2861829644283413</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -963,24 +963,24 @@
         </is>
       </c>
       <c r="F24">
-        <v>-0.001239424768761148</v>
+        <v>-0.001236948551750994</v>
       </c>
       <c r="G24">
-        <v>0.004749951577199</v>
+        <v>0.004324202717874864</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.006005972484968336</v>
+        <v>-0.00294013992425268</v>
       </c>
       <c r="B25">
-        <v>0.001132376054113499</v>
+        <v>0.001677198461963903</v>
       </c>
       <c r="C25">
-        <v>-5.303867441518993</v>
+        <v>-1.753006570736981</v>
       </c>
       <c r="D25">
-        <v>0.0001871567266835495</v>
+        <v>0.1050845618192183</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -988,24 +988,24 @@
         </is>
       </c>
       <c r="F25">
-        <v>-0.008225388767986373</v>
+        <v>-0.006227388504627901</v>
       </c>
       <c r="G25">
-        <v>-0.003786556201950299</v>
+        <v>0.0003471086561225409</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.002437623751221352</v>
+        <v>-0.003150091270134039</v>
       </c>
       <c r="B26">
-        <v>0.00328784852364014</v>
+        <v>0.003134520359815959</v>
       </c>
       <c r="C26">
-        <v>-0.7414039100933207</v>
+        <v>-1.004967557562457</v>
       </c>
       <c r="D26">
-        <v>0.4754995006672623</v>
+        <v>0.3386101422418287</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="F26">
-        <v>-0.008881688444179215</v>
+        <v>-0.009293638284180849</v>
       </c>
       <c r="G26">
-        <v>0.00400644094173651</v>
+        <v>0.00299345574391277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.006728862189901362</v>
+        <v>0.006558187953481018</v>
       </c>
       <c r="B27">
-        <v>0.003769290217459669</v>
+        <v>0.00386513303542163</v>
       </c>
       <c r="C27">
-        <v>1.785180180271794</v>
+        <v>1.696756073692458</v>
       </c>
       <c r="D27">
-        <v>0.08868497504162622</v>
+        <v>0.1045168686101506</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1038,24 +1038,24 @@
         </is>
       </c>
       <c r="F27">
-        <v>-0.0006588108835987377</v>
+        <v>-0.001017333591401353</v>
       </c>
       <c r="G27">
-        <v>0.01411653526340146</v>
+        <v>0.01413370949836339</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.005219070295747069</v>
+        <v>0.008434187714042519</v>
       </c>
       <c r="B28">
-        <v>0.003402926631625976</v>
+        <v>0.001218424199192701</v>
       </c>
       <c r="C28">
-        <v>1.533700505688925</v>
+        <v>6.922209620943847</v>
       </c>
       <c r="D28">
-        <v>0.1594710540571275</v>
+        <v>6.894245948841625E-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1063,24 +1063,24 @@
         </is>
       </c>
       <c r="F28">
-        <v>-0.001450543344272043</v>
+        <v>0.006046120165732768</v>
       </c>
       <c r="G28">
-        <v>0.01188868393576618</v>
+        <v>0.01082225526235227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.00490053363426768</v>
+        <v>0.00488435032669193</v>
       </c>
       <c r="B29">
-        <v>0.001451818156790792</v>
+        <v>0.001477916911913444</v>
       </c>
       <c r="C29">
-        <v>3.375445892686856</v>
+        <v>3.304888310918787</v>
       </c>
       <c r="D29">
-        <v>0.01977200805486288</v>
+        <v>0.02136022421197707</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1088,24 +1088,24 @@
         </is>
       </c>
       <c r="F29">
-        <v>0.002055022334856403</v>
+        <v>0.001987686407198925</v>
       </c>
       <c r="G29">
-        <v>0.007746044933678958</v>
+        <v>0.007781014246184935</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.02893584887738646</v>
+        <v>-0.02403585103797957</v>
       </c>
       <c r="B30">
-        <v>0.009368353324774578</v>
+        <v>0.009312765623920319</v>
       </c>
       <c r="C30">
-        <v>-3.088680355475675</v>
+        <v>-2.580957366331893</v>
       </c>
       <c r="D30">
-        <v>0.003923002159469556</v>
+        <v>0.01420346815650695</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="F30">
-        <v>-0.0472974839883907</v>
+        <v>-0.04228853625732608</v>
       </c>
       <c r="G30">
-        <v>-0.01057421376638222</v>
+        <v>-0.005783165818633067</v>
       </c>
     </row>
     <row r="31">
@@ -1146,16 +1146,16 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.001930499092723857</v>
+        <v>-0.001752968930234984</v>
       </c>
       <c r="B32">
-        <v>0.003555997691303833</v>
+        <v>0.002629581513709487</v>
       </c>
       <c r="C32">
-        <v>-0.5428853616651325</v>
+        <v>-0.6666341853621085</v>
       </c>
       <c r="D32">
-        <v>0.600392902208747</v>
+        <v>0.5217267364075302</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1163,24 +1163,24 @@
         </is>
       </c>
       <c r="F32">
-        <v>-0.00890012649678695</v>
+        <v>-0.006906853991517895</v>
       </c>
       <c r="G32">
-        <v>0.005039128311339234</v>
+        <v>0.003400916131047927</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.001527723054389262</v>
+        <v>-0.002473485946765762</v>
       </c>
       <c r="B33">
-        <v>0.003967784747711487</v>
+        <v>0.003510429214622403</v>
       </c>
       <c r="C33">
-        <v>-0.3850317372358499</v>
+        <v>-0.7046106887621207</v>
       </c>
       <c r="D33">
-        <v>0.7049886416804003</v>
+        <v>0.4905937855598747</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1188,24 +1188,24 @@
         </is>
       </c>
       <c r="F33">
-        <v>-0.009304438258311121</v>
+        <v>-0.009353800777702901</v>
       </c>
       <c r="G33">
-        <v>0.006248992149532595</v>
+        <v>0.004406828884171375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.0008489520124973737</v>
+        <v>0.0009597485447884076</v>
       </c>
       <c r="B34">
-        <v>0.002464918883580117</v>
+        <v>0.002202203617064803</v>
       </c>
       <c r="C34">
-        <v>0.3444137728639297</v>
+        <v>0.4358128092022681</v>
       </c>
       <c r="D34">
-        <v>0.7335348189799402</v>
+        <v>0.6668673946293775</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1213,24 +1213,24 @@
         </is>
       </c>
       <c r="F34">
-        <v>-0.003982200224132334</v>
+        <v>-0.003356491231282442</v>
       </c>
       <c r="G34">
-        <v>0.005680104249127081</v>
+        <v>0.005275988320859257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.004875390374066317</v>
+        <v>0.00603075649050241</v>
       </c>
       <c r="B35">
-        <v>0.009109824985825266</v>
+        <v>0.006695203570857055</v>
       </c>
       <c r="C35">
-        <v>0.5351793675128054</v>
+        <v>0.9007577479425934</v>
       </c>
       <c r="D35">
-        <v>0.6031767596312569</v>
+        <v>0.3870132663689663</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1238,24 +1238,24 @@
         </is>
       </c>
       <c r="F35">
-        <v>-0.01297953850361431</v>
+        <v>-0.007091601377541379</v>
       </c>
       <c r="G35">
-        <v>0.02273031925174694</v>
+        <v>0.0191531143585462</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.001158146629593229</v>
+        <v>-0.001206259091419344</v>
       </c>
       <c r="B36">
-        <v>0.001167644644162236</v>
+        <v>0.001191096463276072</v>
       </c>
       <c r="C36">
-        <v>-0.9918656633963994</v>
+        <v>-1.012729974952295</v>
       </c>
       <c r="D36">
-        <v>0.3264520288715408</v>
+        <v>0.3164866288220912</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1263,24 +1263,24 @@
         </is>
       </c>
       <c r="F36">
-        <v>-0.003446688078892297</v>
+        <v>-0.00354076526155348</v>
       </c>
       <c r="G36">
-        <v>0.00113039481970584</v>
+        <v>0.001128247078714792</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.003302222252988996</v>
+        <v>-0.003073930558149887</v>
       </c>
       <c r="B37">
-        <v>0.008670746359478081</v>
+        <v>0.006575447329712889</v>
       </c>
       <c r="C37">
-        <v>-0.3808463673233047</v>
+        <v>-0.4674861502212211</v>
       </c>
       <c r="D37">
-        <v>0.7094681764804575</v>
+        <v>0.6478915695471933</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1288,24 +1288,24 @@
         </is>
       </c>
       <c r="F37">
-        <v>-0.02029657283664782</v>
+        <v>-0.01596157050662722</v>
       </c>
       <c r="G37">
-        <v>0.01369212833066983</v>
+        <v>0.009813709390327443</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>-0.001764848108176545</v>
+        <v>-0.001804523180212513</v>
       </c>
       <c r="B38">
-        <v>0.001528298031417804</v>
+        <v>0.001506171024150312</v>
       </c>
       <c r="C38">
-        <v>-1.154780070310824</v>
+        <v>-1.198086506298654</v>
       </c>
       <c r="D38">
-        <v>0.2560041106476634</v>
+        <v>0.238933713842749</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1313,24 +1313,24 @@
         </is>
       </c>
       <c r="F38">
-        <v>-0.004760257207398904</v>
+        <v>-0.004756564142104932</v>
       </c>
       <c r="G38">
-        <v>0.001230560991045814</v>
+        <v>0.001147517781679906</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.003245661286565937</v>
+        <v>-0.003180151962511935</v>
       </c>
       <c r="B39">
-        <v>0.001561610453597749</v>
+        <v>0.001624832539496054</v>
       </c>
       <c r="C39">
-        <v>-2.078406480366696</v>
+        <v>-1.957218288783327</v>
       </c>
       <c r="D39">
-        <v>0.04577373145272147</v>
+        <v>0.05909288602521739</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1338,24 +1338,24 @@
         </is>
       </c>
       <c r="F39">
-        <v>-0.006306361533498783</v>
+        <v>-0.006364765220832956</v>
       </c>
       <c r="G39">
-        <v>-0.0001849610396330919</v>
+        <v>4.461295809086302E-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.01196834335694973</v>
+        <v>-0.01232732409524677</v>
       </c>
       <c r="B40">
-        <v>0.003737648199758338</v>
+        <v>0.003476378183221922</v>
       </c>
       <c r="C40">
-        <v>-3.202105366075801</v>
+        <v>-3.546025042598144</v>
       </c>
       <c r="D40">
-        <v>0.0107947721011851</v>
+        <v>0.006254738210679756</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1363,24 +1363,24 @@
         </is>
       </c>
       <c r="F40">
-        <v>-0.01929399921535704</v>
+        <v>-0.01914090013100253</v>
       </c>
       <c r="G40">
-        <v>-0.00464268749854242</v>
+        <v>-0.005513748059491024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.005216724759527641</v>
+        <v>0.005018552409264839</v>
       </c>
       <c r="B41">
-        <v>0.004287800111424399</v>
+        <v>0.004456320519419943</v>
       </c>
       <c r="C41">
-        <v>1.216643645684</v>
+        <v>1.126165047463435</v>
       </c>
       <c r="D41">
-        <v>0.2346693543935466</v>
+        <v>0.2703833971741165</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1388,24 +1388,24 @@
         </is>
       </c>
       <c r="F41">
-        <v>-0.003187209031771011</v>
+        <v>-0.003715675312365074</v>
       </c>
       <c r="G41">
-        <v>0.01362065855082629</v>
+        <v>0.01375278013089475</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.006082036342332184</v>
+        <v>0.006090621965578936</v>
       </c>
       <c r="B42">
-        <v>0.004169785907564809</v>
+        <v>0.003778337046416367</v>
       </c>
       <c r="C42">
-        <v>1.458596790616559</v>
+        <v>1.611984820506074</v>
       </c>
       <c r="D42">
-        <v>0.1786739528715851</v>
+        <v>0.1414243196456721</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1413,24 +1413,24 @@
         </is>
       </c>
       <c r="F42">
-        <v>-0.002090593859737503</v>
+        <v>-0.001314782566850584</v>
       </c>
       <c r="G42">
-        <v>0.01425466654440187</v>
+        <v>0.01349602649800846</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.001077046298714507</v>
+        <v>-0.001112575532480801</v>
       </c>
       <c r="B43">
-        <v>0.004301699500372073</v>
+        <v>0.004297778854226827</v>
       </c>
       <c r="C43">
-        <v>-0.2503769262872379</v>
+        <v>-0.2588722152110254</v>
       </c>
       <c r="D43">
-        <v>0.8047291206138429</v>
+        <v>0.7982543767419417</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1438,24 +1438,24 @@
         </is>
       </c>
       <c r="F43">
-        <v>-0.009508222391757713</v>
+        <v>-0.0095360673002832</v>
       </c>
       <c r="G43">
-        <v>0.007354129794328699</v>
+        <v>0.007310916235321597</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.01028905619951721</v>
+        <v>0.01048301604195529</v>
       </c>
       <c r="B44">
-        <v>0.007050879081673326</v>
+        <v>0.00735507695276175</v>
       </c>
       <c r="C44">
-        <v>1.459258637162077</v>
+        <v>1.425276188037576</v>
       </c>
       <c r="D44">
-        <v>0.1826136392646842</v>
+        <v>0.1919030411717628</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1463,24 +1463,24 @@
         </is>
       </c>
       <c r="F44">
-        <v>-0.003530412859909352</v>
+        <v>-0.003932669888978342</v>
       </c>
       <c r="G44">
-        <v>0.02410852525894378</v>
+        <v>0.02489870197288893</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.002816090159184556</v>
+        <v>0.002585030342982022</v>
       </c>
       <c r="B45">
-        <v>0.005657194112980524</v>
+        <v>0.001070356032711312</v>
       </c>
       <c r="C45">
-        <v>0.4977892048503323</v>
+        <v>2.415112601770363</v>
       </c>
       <c r="D45">
-        <v>0.6397497080521464</v>
+        <v>0.06048108596588112</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1488,24 +1488,24 @@
         </is>
       </c>
       <c r="F45">
-        <v>-0.008271806555809287</v>
+        <v>0.0004871710682326736</v>
       </c>
       <c r="G45">
-        <v>0.0139039868741784</v>
+        <v>0.004682889617731369</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.01007234029345476</v>
+        <v>0.01103148766064143</v>
       </c>
       <c r="B46">
-        <v>0.007004582869409505</v>
+        <v>0.007371882213536221</v>
       </c>
       <c r="C46">
-        <v>1.43796432724678</v>
+        <v>1.496427552841994</v>
       </c>
       <c r="D46">
-        <v>0.1809927694878148</v>
+        <v>0.1654200992389539</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1513,24 +1513,24 @@
         </is>
       </c>
       <c r="F46">
-        <v>-0.003656389857314099</v>
+        <v>-0.003417135976160973</v>
       </c>
       <c r="G46">
-        <v>0.02380107044422361</v>
+        <v>0.02548011129744383</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.006611070130096612</v>
+        <v>-0.005020574773901955</v>
       </c>
       <c r="B47">
-        <v>0.006980142362403569</v>
+        <v>0.007271748513804442</v>
       </c>
       <c r="C47">
-        <v>-0.9471254004366941</v>
+        <v>-0.6904219479498039</v>
       </c>
       <c r="D47">
-        <v>0.3658995244716547</v>
+        <v>0.5056371198661774</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1538,24 +1538,24 @@
         </is>
       </c>
       <c r="F47">
-        <v>-0.02029189776736993</v>
+        <v>-0.01927293996559132</v>
       </c>
       <c r="G47">
-        <v>0.00706975750717671</v>
+        <v>0.009231790417787412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.004052011908552569</v>
+        <v>0.003420868106938796</v>
       </c>
       <c r="B48">
-        <v>0.008260880540897974</v>
+        <v>0.004510501502050327</v>
       </c>
       <c r="C48">
-        <v>-0.490506053016003</v>
+        <v>0.7584230058195927</v>
       </c>
       <c r="D48">
-        <v>0.6343600589485812</v>
+        <v>0.465696754241066</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1563,24 +1563,24 @@
         </is>
       </c>
       <c r="F48">
-        <v>-0.02024304024930036</v>
+        <v>-0.005419552389293659</v>
       </c>
       <c r="G48">
-        <v>0.01213901643219522</v>
+        <v>0.01226128860317125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.005118561951324888</v>
+        <v>-0.003391824810606952</v>
       </c>
       <c r="B49">
-        <v>0.003930901999992542</v>
+        <v>0.00399662439061288</v>
       </c>
       <c r="C49">
-        <v>-1.302134205160698</v>
+        <v>-0.8486723992811388</v>
       </c>
       <c r="D49">
-        <v>0.2125113784579743</v>
+        <v>0.4094034181126794</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1588,24 +1588,24 @@
         </is>
       </c>
       <c r="F49">
-        <v>-0.01282298829806673</v>
+        <v>-0.01122506467594253</v>
       </c>
       <c r="G49">
-        <v>0.00258586439541696</v>
+        <v>0.004441415054728632</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.01354265183800127</v>
+        <v>0.01360807868413123</v>
       </c>
       <c r="B50">
-        <v>0.009476310517406718</v>
+        <v>0.009721913583374099</v>
       </c>
       <c r="C50">
-        <v>1.429105959869638</v>
+        <v>1.39973252872799</v>
       </c>
       <c r="D50">
-        <v>0.2029045566048475</v>
+        <v>0.2111175465210955</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1613,24 +1613,24 @@
         </is>
       </c>
       <c r="F50">
-        <v>-0.005030575482434017</v>
+        <v>-0.005446521800092745</v>
       </c>
       <c r="G50">
-        <v>0.03211587915843656</v>
+        <v>0.0326626791683552</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.01148562167623949</v>
+        <v>-0.01181376286355497</v>
       </c>
       <c r="B51">
-        <v>0.01022538139199571</v>
+        <v>0.006026221125189624</v>
       </c>
       <c r="C51">
-        <v>-1.123246286464217</v>
+        <v>-1.960393191377164</v>
       </c>
       <c r="D51">
-        <v>0.2852499927662094</v>
+        <v>0.07576361099508913</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="F51">
-        <v>-0.03152700093273711</v>
+        <v>-0.02362493923180107</v>
       </c>
       <c r="G51">
-        <v>0.008555757580258137</v>
+        <v>-2.58649530886744E-06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.0167503283653257</v>
+        <v>-0.01688574332762965</v>
       </c>
       <c r="B52">
-        <v>0.007910276444716603</v>
+        <v>0.008050144590728687</v>
       </c>
       <c r="C52">
-        <v>-2.117540200066397</v>
+        <v>-2.097570191108974</v>
       </c>
       <c r="D52">
-        <v>0.04207810492053834</v>
+        <v>0.04392961925895208</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="F52">
-        <v>-0.03225418530472578</v>
+        <v>-0.0326637367957978</v>
       </c>
       <c r="G52">
-        <v>-0.00124647142592562</v>
+        <v>-0.00110774985946149</v>
       </c>
     </row>
     <row r="53">
@@ -1696,16 +1696,16 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.01684829865722685</v>
+        <v>0.01661153629762615</v>
       </c>
       <c r="B54">
-        <v>0.01086755603671768</v>
+        <v>0.01117575733027856</v>
       </c>
       <c r="C54">
-        <v>1.550330046636274</v>
+        <v>1.48639021112425</v>
       </c>
       <c r="D54">
-        <v>0.1450574304617992</v>
+        <v>0.1610217544176616</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1713,24 +1713,24 @@
         </is>
       </c>
       <c r="F54">
-        <v>-0.00445171977471066</v>
+        <v>-0.005292545569679345</v>
       </c>
       <c r="G54">
-        <v>0.03814831708916435</v>
+        <v>0.03851561816493163</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.001228341551397078</v>
+        <v>-0.001196635473698704</v>
       </c>
       <c r="B55">
-        <v>0.00141313270228413</v>
+        <v>0.00140591327435586</v>
       </c>
       <c r="C55">
-        <v>-0.8692329810297629</v>
+        <v>-0.8511445873124431</v>
       </c>
       <c r="D55">
-        <v>0.4073029164609434</v>
+        <v>0.4167595116676353</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1738,24 +1738,24 @@
         </is>
       </c>
       <c r="F55">
-        <v>-0.003998030753249735</v>
+        <v>-0.003952174856822969</v>
       </c>
       <c r="G55">
-        <v>0.001541347650455577</v>
+        <v>0.001558903909425561</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.002292044477936053</v>
+        <v>-0.002289452853222566</v>
       </c>
       <c r="B56">
-        <v>0.0028836877683042</v>
+        <v>0.002635049635934297</v>
       </c>
       <c r="C56">
-        <v>-0.7948310157323056</v>
+        <v>-0.8688461962921643</v>
       </c>
       <c r="D56">
-        <v>0.4569914687781869</v>
+        <v>0.4183251380634652</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1763,24 +1763,24 @@
         </is>
       </c>
       <c r="F56">
-        <v>-0.00794396864647097</v>
+        <v>-0.007454055237129168</v>
       </c>
       <c r="G56">
-        <v>0.003359879690598862</v>
+        <v>0.002875149530684036</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.002175377338523639</v>
+        <v>-0.002142450961583701</v>
       </c>
       <c r="B57">
-        <v>0.003735165973401814</v>
+        <v>0.003743106560694084</v>
       </c>
       <c r="C57">
-        <v>-0.5824044644908799</v>
+        <v>-0.5723724202995777</v>
       </c>
       <c r="D57">
-        <v>0.5710754070184602</v>
+        <v>0.5776358913236346</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1788,24 +1788,24 @@
         </is>
       </c>
       <c r="F57">
-        <v>-0.009496168122670687</v>
+        <v>-0.009478805010839694</v>
       </c>
       <c r="G57">
-        <v>0.005145413445623408</v>
+        <v>0.005193903087672291</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.005945677573608399</v>
+        <v>-0.005878748706384384</v>
       </c>
       <c r="B58">
-        <v>0.003606271243871301</v>
+        <v>0.003526034766218493</v>
       </c>
       <c r="C58">
-        <v>-1.648705039509387</v>
+        <v>-1.667240709792849</v>
       </c>
       <c r="D58">
-        <v>0.1251215657199029</v>
+        <v>0.1213313297791462</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1813,24 +1813,24 @@
         </is>
       </c>
       <c r="F58">
-        <v>-0.01301383933007861</v>
+        <v>-0.01278964985640874</v>
       </c>
       <c r="G58">
-        <v>0.001122484182861811</v>
+        <v>0.00103215244363997</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.003136542542255203</v>
+        <v>0.00313852038379391</v>
       </c>
       <c r="B59">
-        <v>0.003452322933678296</v>
+        <v>0.003523879097797659</v>
       </c>
       <c r="C59">
-        <v>0.9085310391033893</v>
+        <v>0.8906436051552992</v>
       </c>
       <c r="D59">
-        <v>0.3770797633837208</v>
+        <v>0.3863174564964037</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1838,24 +1838,24 @@
         </is>
       </c>
       <c r="F59">
-        <v>-0.003629886070755917</v>
+        <v>-0.003768155733763</v>
       </c>
       <c r="G59">
-        <v>0.009902971155266322</v>
+        <v>0.01004519650135082</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.003247439623471482</v>
+        <v>0.001213215455461835</v>
       </c>
       <c r="B60">
-        <v>0.005006649334562723</v>
+        <v>0.004942737767171671</v>
       </c>
       <c r="C60">
-        <v>0.6486253393169009</v>
+        <v>0.2454541415325903</v>
       </c>
       <c r="D60">
-        <v>0.5311926344626831</v>
+        <v>0.8110688055296501</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1863,24 +1863,24 @@
         </is>
       </c>
       <c r="F60">
-        <v>-0.006565412755492881</v>
+        <v>-0.008474372553220562</v>
       </c>
       <c r="G60">
-        <v>0.01306029200243584</v>
+        <v>0.01090080346414423</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-4.276999343153325E-06</v>
+        <v>0.0005683257758184452</v>
       </c>
       <c r="B61">
-        <v>0.00430001821430597</v>
+        <v>0.004601096876683411</v>
       </c>
       <c r="C61">
-        <v>-0.0009946467968261015</v>
+        <v>0.1235196282648387</v>
       </c>
       <c r="D61">
-        <v>0.9992179655975035</v>
+        <v>0.9031442770263646</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1888,24 +1888,24 @@
         </is>
       </c>
       <c r="F61">
-        <v>-0.008432157832249088</v>
+        <v>-0.00844965839186077</v>
       </c>
       <c r="G61">
-        <v>0.008423603833562781</v>
+        <v>0.00958630994349766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.007298342724975037</v>
+        <v>-0.007293567368050409</v>
       </c>
       <c r="B62">
-        <v>0.00262393582905358</v>
+        <v>0.002583345572495895</v>
       </c>
       <c r="C62">
-        <v>-2.781448633066402</v>
+        <v>-2.823303024458993</v>
       </c>
       <c r="D62">
-        <v>0.008875687823784496</v>
+        <v>0.007995812089913071</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="F62">
-        <v>-0.0124411624476643</v>
+        <v>-0.01235683164976337</v>
       </c>
       <c r="G62">
-        <v>-0.002155523002285773</v>
+        <v>-0.002230303086337448</v>
       </c>
     </row>
   </sheetData>
